--- a/vending/vending_states.xlsx
+++ b/vending/vending_states.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8a27e02ab8d9ac/UNI/progr/miniproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE81377-6EF0-4BD2-B102-781A33E0B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{79ADB38B-C826-402B-8127-267A058FA94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="states" sheetId="1" r:id="rId1"/>
+    <sheet name="states" sheetId="2" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="46">
   <si>
     <t>S1</t>
   </si>
@@ -61,7 +62,103 @@
     <t>N4</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Next state</t>
+  </si>
+  <si>
+    <t>Money left</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>0.5 DKK</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>2 DKK</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>5 DKK</t>
+  </si>
+  <si>
+    <t>0 DKK</t>
+  </si>
+  <si>
+    <t>1.5 DKK</t>
+  </si>
+  <si>
+    <t>2.5 DKK</t>
+  </si>
+  <si>
+    <t>3.5 DKK</t>
+  </si>
+  <si>
+    <t>4.5 DKK</t>
+  </si>
+  <si>
+    <t>5.5 DKK</t>
+  </si>
+  <si>
+    <t>1 DKK</t>
+  </si>
+  <si>
+    <t>3 DKK</t>
+  </si>
+  <si>
+    <t>4 DKK</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Dispense</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -403,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -598,6 +695,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -643,7 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -653,6 +765,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1008,6 +1130,1036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>B13</f>
+        <v>S2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>B9</f>
+        <v>S1</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>B17</f>
+        <v>S3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>B13</f>
+        <v>S2</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>B21</f>
+        <v>S4</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f>B17</f>
+        <v>S3</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="11" t="str">
+        <f>B25</f>
+        <v>S5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f>B21</f>
+        <v>S4</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="11" t="str">
+        <f>B9</f>
+        <v>S1</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f>B29</f>
+        <v>S6</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f>B25</f>
+        <v>S5</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>B13</f>
+        <v>S2</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f>B33</f>
+        <v>S7</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f>B29</f>
+        <v>S6</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f>B17</f>
+        <v>S3</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f>B37</f>
+        <v>S8</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f>B33</f>
+        <v>S7</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f>B21</f>
+        <v>S4</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f>B41</f>
+        <v>S9</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f>B37</f>
+        <v>S8</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="11" t="str">
+        <f>B25</f>
+        <v>S5</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="11" t="str">
+        <f>B45</f>
+        <v>S10</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="11" t="str">
+        <f>B41</f>
+        <v>S9</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="11" t="str">
+        <f>B29</f>
+        <v>S6</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="11" t="str">
+        <f>B49</f>
+        <v>S11</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="11" t="str">
+        <f>B45</f>
+        <v>S10</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="11" t="str">
+        <f>B33</f>
+        <v>S7</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1086,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1127,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -1168,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1209,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1250,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1291,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1332,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1364,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1405,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1446,13 +2598,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1487,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
@@ -1528,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1569,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1610,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1651,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
@@ -1692,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1733,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1774,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1815,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="8">
         <v>1</v>
@@ -1856,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1897,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1938,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -1979,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="8">
         <v>1</v>
@@ -2020,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2061,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2102,13 +3254,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2143,13 +3295,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="8">
         <v>1</v>
@@ -2184,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2225,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2266,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2307,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="8">
         <v>1</v>
@@ -2348,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2389,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2430,13 +3582,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2471,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="8">
         <v>1</v>
@@ -2512,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2553,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2594,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -2635,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" s="8">
         <v>1</v>
@@ -2676,13 +3828,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -2717,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -2758,13 +3910,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -2799,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" s="8">
         <v>1</v>
@@ -2840,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2881,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -2922,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -2963,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="8">
         <v>1</v>
@@ -3004,13 +4156,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3045,13 +4197,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3086,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3127,13 +4279,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" s="8">
         <v>1</v>
@@ -3168,19 +4320,19 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -3209,19 +4361,19 @@
         <v>1</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
